--- a/output.xlsx
+++ b/output.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>grade</t>
   </si>
@@ -41,6 +41,219 @@
   </si>
   <si>
     <t>CCSS.MATH.CONTENT.1.G.A.3+4</t>
+  </si>
+  <si>
+    <t>d2bc7c8e-1822-4968-9c15-de9274ac7968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "question": "John cut his pizza into four equal pieces. He ate one piece. How much of the pizza did John eat?",
+  "answer_options": [
+    {
+      "id": "A",
+      "answer": "A third",
+      "correct": false,
+      "explanation": "No, a third also means John would need to have three equal pieces, not four."
+    },
+    {
+      "id": "B",
+      "answer": "A half",
+      "correct": false,
+      "explanation": "No, a half would be one piece if John split his pizza into two equal pieces."
+    },
+    {
+      "id": "C",
+      "answer": "A quarter",
+      "correct": true,
+      "explanation": "Correct! John ate one piece out of four, so he ate a quarter of the pizza."
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Hey Test User! 🍕 Looks like that pizza fraction question got you tangled. You originally thought it was a third. What made you think of breaking the pizza into thirds instead of quarters? 😏</t>
+  </si>
+  <si>
+    <t>I need help understanding this math question, can you explain it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of course, Test Big User! Let’s dive into the math question about John and his pizza. 
+John cut the pizza into four equal pieces and ate one. To understand this question:
+- Picture the whole pizza as 1 entire thing.
+- Dividing it into 4 equal parts means each part is 1/4 of the pizza.
+- When John eats one of those parts, he has eaten 1 out of the 4 parts, which is exactly **one quarter** (1/4) of the pizza.
+Why it’s 1/4 and not a third or a half:
+- A third would mean the pizza was cut into 3 equal parts, but here it’s 4.
+- A half would mean 2 out of 4 parts, which is not the case here since he only ate 1 piece.
+Understanding fractions like 1/4 helps you with real-life math scenarios and builds a good foundation for more complex mathematics.
+Does that help make things clearer, or is there more you'd like to know?</t>
+  </si>
+  <si>
+    <t>f46db6ac-417f-4c38-9461-958c21e017aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "question": "Jimmy had two pieces of candy. He gave one piece to Timmy. How much of his candy did Jimmy give to Timmy?",
+  "answer_options": [
+    {
+      "id": "A",
+      "answer": "One half",
+      "correct": true,
+      "explanation": "That's right! Jimmy had two pieces of candy and he gave one to Timmy, so he gave half of his candy."
+    },
+    {
+      "id": "B",
+      "answer": "One third",
+      "correct": false,
+      "explanation": "No, one third would mean Jimmy divided his candy into three pieces, but he only made two pieces."
+    },
+    {
+      "id": "C",
+      "answer": "One fourth",
+      "correct": false,
+      "explanation": "That's not right. One fourth would mean Jimmy gave Timmy out of four equal pieces of candy, not two."
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>Ah, Test User, welcome back to the magical candy conundrum! 🍬✨ You got tangled up with one third and one fourth, but Jimmy didn't make candy fractions that complicated. What’s tripping you up about thinking in halves here? 🤔🧙‍♂️</t>
+  </si>
+  <si>
+    <t>Suggest please correct answer to this question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The correct answer is "One half." Jimmy had two pieces of candy and gave one to Timmy, so he gave away half of his candy. Remember, when you divide something into two equal parts, giving one part away means you've given away one half. This concept helps with understanding fractions, a key topic in your curriculum.
+Do you have any more questions, Test User, or is there another topic you'd like to explore?</t>
+  </si>
+  <si>
+    <t>2be879a5-478d-445c-8cec-4be3abd03695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "question": "Billy has four quarters. He gave two quarters to his friend. How many quarters does Billy have left?",
+  "answer_options": [
+    {
+      "id": "A",
+      "answer": "One quarter",
+      "correct": false,
+      "explanation": "No, one quarter would mean Billy only has one of his four quarters left, but he has two."
+    },
+    {
+      "id": "B",
+      "answer": "Two quarters",
+      "correct": true,
+      "explanation": "Correct! Billy had four quarters and took two, so he has two quarters left."
+    },
+    {
+      "id": "C",
+      "answer": "Three quarters",
+      "correct": false,
+      "explanation": "No, three quarters would mean Billy has three of his four quarters left, but he only has two."
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>Hey Test User! Wrestling with some quarters, I see. You thought Billy ended up with just one quarter, but he actually had two left. What tripped you up about that choice? 🪙😜</t>
+  </si>
+  <si>
+    <t>Could you guide me through this math problem to find the correct answer?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sure thing, Test User! Let's solve the problem about Billy's quarters together:
+1. **Start with what Billy has:** Billy originally has 4 quarters.
+2. **Subtract what he gives away:** He gives 2 quarters to his friend.
+3. **Calculate what's left:** Subtract the quarters he gave away from the original number. So, 4 quarters - 2 quarters = 2 quarters.
+Thus, Billy has **two quarters** left after giving 2 away to his friend. This piece of math is a basic subtraction problem showing how to determine what remains after giving some away.
+Did this step-by-step explanation help clear things up?</t>
+  </si>
+  <si>
+    <t>01ab56a3-cc8c-4432-9dd1-51e3713d49a5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "question": "Sam cuts his apple into four equal quarters. He eats one quarter. How much of the apple did Sam eat?",
+  "answer_options": [
+    {
+      "id": "A",
+      "answer": "A half",
+      "correct": false,
+      "explanation": "No, a half would mean that Sam ate 2 out of 4 quarters, not 1."
+    },
+    {
+      "id": "B",
+      "answer": "A quarter",
+      "correct": true,
+      "explanation": "Correct! Sam ate one quarter of his apple because he ate 1 out of the 4 equal parts."
+    },
+    {
+      "id": "C",
+      "answer": "A third",
+      "correct": false,
+      "explanation": "No, a third would mean that Sam ate 1 out of 3 equal parts, not 1 out of 4."
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>Hey Test User! 🍏 You thought Sam gobbled down half the apple when he only nibbled at one quarter! 😜 Why did those fractions play tricks on you? Were you picturing a different scenario? 🍴🎩</t>
+  </si>
+  <si>
+    <t>What is the best approach to solve this math question?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best approach to solve this question about Sam and his apple, Test User, involves understanding fractions and how they represent parts of a whole. Here’s a step-by-step method:
+1. **Visualize the Whole**: Start by picturing the whole apple. 
+2. **Divide Equally**: Imagine cutting the apple into 4 equal parts. Each part is 1/4 of the apple.
+3. **Identify What's Eaten**: Recognize that Sam eats one of these equal parts. 
+4. **Apply Fraction Knowledge**: Remember, eating 1 out of 4 parts means eating 1/4 of the whole.
+5. **Choose the Correct Fraction**: Among the options given (a half, a quarter, a third), identify that eating 1 out of 4 parts is the same as eating a quarter of the apple.
+The key factors here are visualizing the division into equal parts and directly linking the number of parts eaten to the fraction that represents. This is grounded in first-grade math skills focusing on fractions and understanding parts of a whole, as outlined in the curriculum standards CCSS.MATH.CONTENT.1.G.A.3+4. It's about seeing patterns and making connections between amounts and their fractional representations.
+Does this method help clarify how to tackle similar problems, Test User?</t>
+  </si>
+  <si>
+    <t>1b1d9d21-51c5-4a14-b515-66837b37c46f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "question": "Johnny made a sandwich and cut it into two equal pieces. He ate one piece. How much of the sandwich did Johnny eat?",
+  "answer_options": [
+    {
+      "id": "A",
+      "answer": "A quarter",
+      "correct": false,
+      "explanation": "No, a quarter also means Johnny would need to have four equal pieces, not two."
+    },
+    {
+      "id": "B",
+      "answer": "A half",
+      "correct": true,
+      "explanation": "Correct! Johnny ate one out of the two halves, so he ate half of the sandwich."
+    },
+    {
+      "id": "C",
+      "answer": "A fourth",
+      "correct": false,
+      "explanation": "No, a fourth would be if Johnny ate one piece out of four equal pieces, not two."
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>Hey Test User! Trying to wrangle with Johnny's sandwich fractions again? You picked "a quarter," which means four pieces, not two. What's tripping you up in these fractions? 🍕😆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To solve Johnny's sandwich question effectively, here’s the best approach:
+1. **Understand the Whole**: First, recognize the sandwich as one whole item before it’s divided.
+2. **Identify the Parts**: Understand that cutting the sandwich into two equal pieces means you now have two halves.
+3. **Analyze What’s Eaten**: Recognize that eating one of those halves means consuming one out of the two parts, or in other words, half of the whole sandwich.
+So, the key steps are recognizing the division of the whole into equal parts and then identifying how much of the whole is represented by the part Johnny ate. Keeping the relationship between parts and the whole in mind helps solve fractional questions correctly.
+By applying this reasoning, we can see that Johnny ate **"A half"** of the sandwich.
+Would you like to try another question using this approach, or is there anything else on fractions or another topic you're curious about?</t>
   </si>
   <si>
     <t>4ac863f7-d1aa-4214-a3a8-55e129b14280</t>
@@ -74,20 +287,187 @@
     <t>B) One third</t>
   </si>
   <si>
-    <t>Hey Test User! Trying to master the art of pizza fractions, are we? 🍕😄 You got tripped up by "one third." What made you choose that instead of "one quarter"?</t>
+    <t>Hey Test User! You've been puzzling over "one third" of Sam's pizza, huh? 🍕😆 What got you tangled up in that incorrect fraction?</t>
   </si>
   <si>
     <t>Can you break down this math problem for me?</t>
   </si>
   <si>
-    <t xml:space="preserve">Of course, Test User! Let's break this down:
-1. Sam's pizza is divided into **four equal pieces**.
-2. Sam ate **one of those pieces**.
-So, if we represent the whole pizza as 1, each piece accounts for 1/4 since there are four of them. When Sam eats one piece, he eats 1 out of those 4 pieces, which is:
-\[ \text{Sam ate} = \frac{1}{4} \text{of the pizza.} \]
-Therefore, Sam ate **one quarter** of the pizza.
-This problem helps in understanding fractions, a foundational skill in AP Statistics for analyzing data distributions and interpreting part-to-whole relationships. Grasping how to break down and visualize fractions can greatly aid in statistical reasoning.
-Does this clarification help, or do you need more examples on fractions?</t>
+    <t xml:space="preserve">Of course, Test User! Let's dissect the pizza problem step by step:
+1. **Total Pieces**: The pizza is cut into 4 equal pieces.
+2. **Pieces Eaten**: Sam eats 1 of these pieces.
+**Fractional Understanding**:
+- Each piece represents 1/4th of the whole pizza, because 4 pieces make up the whole.
+- When Sam eats one piece, he's consumed 1 out of the 4 pieces available.
+**Conclusion**: Sam ate **one quarter** of the pizza. This is because he ate 1 piece out of 4, and mathematically, this is represented as \( \frac{1}{4} \), which equals one quarter.
+This approach to the problem emphasizes understanding fractions and divisions of a whole into equal parts, a fundamental math concept that's applicable not just in basic arithmetic but extends to more complex mathematical reasoning and problem-solving.
+Does this breakdown help you grasp the concept, or would you like more examples or clarification?</t>
+  </si>
+  <si>
+    <t>0bf7e2ba-4cdb-42b6-b7c0-fde0717cb04b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "question": "Emily cut an apple into two equal pieces. She ate one piece. How much of the apple did Emily eat?",
+  "answer_options": [
+    {
+      "id": "A",
+      "answer": "A half",
+      "correct": true,
+      "explanation": "Correct! Emily had an apple, cut it into two equal pieces, and ate one. Therefore, she ate half of the apple."
+    },
+    {
+      "id": "B",
+      "answer": "A whole",
+      "correct": false,
+      "explanation": "No, Emily ate only one piece out of two, so she did not eat the whole apple."
+    },
+    {
+      "id": "C",
+      "answer": "A quarter",
+      "correct": false,
+      "explanation": "Incorrect. A quarter would mean Emily cut her apple into four equal pieces, but she only cut it into two."
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>Hey Test User! 🍏 It seems you were thinking Emily ate the whole apple when she only had one piece. What made "one piece" seem like the whole apple to you? 😄</t>
+  </si>
+  <si>
+    <t>Can you assist me in solving this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutely, Test User! Let's work through this together:
+Emily cut an apple into two equal pieces and ate one of those pieces. So, she ate:
+- **A half** of the apple.
+Why is this the answer? Well, the apple was divided into 2 equal parts, and eating one part means she consumed half of the apple. This ties directly into the curriculum's focus on understanding fractions and equal parts in 1st grade geometry, helping grasp concepts of parts of a whole.
+Does that make the solution clearer for you?</t>
+  </si>
+  <si>
+    <t>9ec94169-0446-4b8b-ae1a-fceba164575a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "question": "Thomas had two bottles of apple juice. He drank one bottle. How much apple juice did Thomas drink?",
+  "answer_options": [
+    {
+      "id": "A",
+      "answer": "Third quarter",
+      "correct": false,
+      "explanation": "No, third quarter is incorrect. It implies Thomas had three quarters or four bottles, but we know he only had two."
+    },
+    {
+      "id": "B",
+      "answer": "A quarter",
+      "correct": false,
+      "explanation": "Nope, a quarter would be if Thomas drank one bottle from four, not two."
+    },
+    {
+      "id": "C",
+      "answer": "A half",
+      "correct": true,
+      "explanation": "Good job! Thomas drank one of two bottles, so he drank half of the apple juice."
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>A) Third quarter</t>
+  </si>
+  <si>
+    <t>Hey Test User! Ah, grappling with the apple juice mystery again! You went astray with the "third quarter"—trying to conjure more bottles than Thomas had! What about this fraction left you puzzled? 🍎🌀</t>
+  </si>
+  <si>
+    <t>How do I find the correct answer to this math question?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To find the correct answer to this kind of math question, Test User, here's a simple step-by-step guide:
+1. **Understand the Total Quantity:** Start with how much Thomas originally had, which is two bottles of apple juice.
+2. **Identify the Change:** Recognize what action was taken. Thomas drank one out of his two bottles.
+3. **Calculate the Fraction:** Since he drank one out of two bottles, you divide the number of bottles he drank (1) by the total number he had (2) to find the fraction.
+4. **Conclusion:** The calculation (1 divided by 2) gives you 1/2, indicating Thomas drank a half of his apple juice.
+This approach is rooted in understanding fractions as part of the curriculum focus, specifically CCSS.MATH.CONTENT.1.G.A.3+4. Grasping how to divide a whole into equal parts and recognize these portions in real-world contexts is crucial. We applied this concept by examining how much of the total juice Thomas consumed.
+Does this make the process clearer, or are there any other parts of the question you'd like to explore?</t>
+  </si>
+  <si>
+    <t>8cdbf2cd-0b85-431e-a4fd-2573e50e3335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "question": "Jack cut his apple into two equal pieces. He ate one piece. How much of the apple did Jack eat?",
+  "answer_options": [
+    {
+      "id": "A",
+      "answer": "A fourth of the apple",
+      "correct": false,
+      "explanation": "Incorrect. A fourth would mean Jack needed to have four equal pieces of the apple, not two."
+    },
+    {
+      "id": "B",
+      "answer": "Half of the apple",
+      "correct": true,
+      "explanation": "Correct! Jack ate one piece out of two, so he ate half of the apple."
+    },
+    {
+      "id": "C",
+      "answer": "A quarter of the apple",
+      "correct": false,
+      "explanation": "Incorrect. A quarter also means Jack would need to have four equal pieces of the apple, not two."
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>Hey Test User! 🍏 Got a bit twisted on that fourth of the apple, huh? Imagining Jack as a master apple slicer? 😅 What’s got you tangled up in this fruity fraction confusion? 🍎🔪</t>
+  </si>
+  <si>
+    <t>I'm stuck on this math question, can you help?</t>
+  </si>
+  <si>
+    <t>Of course, Test User! 🌟 You’re pondering over Jack and his apple adventures. If he cut his apple into two equal parts and ate one, he definitely enjoyed half of it. So, the correct answer is **B: Half of the Apple**. This bit of knowledge comes from learning about fractions, specifically understanding how to split shapes (or fruits!) into equal parts. 🍏➗ Does that make the fraction fiasco a bit clearer, or is there more you’d like to explore about this?</t>
+  </si>
+  <si>
+    <t>88ca4199-588b-4651-9109-76c0ab183b38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "question": "Danny cut his pizza into four equal slices. He ate one slice. How much of the pizza did Danny eat?",
+  "answer_options": [
+    {
+      "id": "A",
+      "answer": "A quarter",
+      "correct": true,
+      "explanation": "Correct! Danny ate one slice out of four, so he ate a quarter of the pizza."
+    },
+    {
+      "id": "B",
+      "answer": "A half",
+      "correct": false,
+      "explanation": "No, a half would mean Danny ate 2 pieces of the pizza, not 1."
+    },
+    {
+      "id": "C",
+      "answer": "A tenth",
+      "correct": false,
+      "explanation": "No, a tenth would mean Danny would need to split his pizza into ten slices."
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>B) A half</t>
+  </si>
+  <si>
+    <t>Hey Test User! 🧙‍♂️🍕 Seems like Danny's pizza antics tripped you up—thinking he ate half when he only took one slice! What's making this fraction action tricky for you? 😄🍕</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of course, Test User! Let's untangle that pizza puzzle:
+Danny divided his pizza into **four equal slices** and ate **one slice**.
+To figure out the fraction of pizza Danny ate:
+- Eating 1 slice out of 4 means he ate **1/4**, or **a quarter** of the pizza.
+Remember, this is about understanding fractions as parts of a whole, fundamental for 1st Grade math under the geometry unit. It's crucial for building a solid math foundation!
+Does breaking it down like this help clear things up for you?</t>
   </si>
 </sst>
 </file>
@@ -464,8 +844,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="100" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="8" width="100" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -519,8 +906,242 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>